--- a/Implementación/Test 10/decisiones_w1.xlsx
+++ b/Implementación/Test 10/decisiones_w1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768E27DE-C0FC-4B9C-954A-BFAD1902E9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB218890-B420-4E0A-8AD1-11AC2191E296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{805923A4-82C5-4E08-94D4-7B91D0F243B3}"/>
   </bookViews>
